--- a/RemoteLaunch_Controller/CameraTriggerRev 4_2 w Launch Controller 2023/BOM_non_JLCPCB.xlsx
+++ b/RemoteLaunch_Controller/CameraTriggerRev 4_2 w Launch Controller 2023/BOM_non_JLCPCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2220866c56961e57/Documents/git_repos/RocketTrig/RemoteLaunch_Controller/CameraTriggerRev 4_2 w Launch Controller 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC1048EE719F44CE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08F9C32-6DE0-4ED0-8B42-4E84897D20B4}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC1048EE719F44CE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFE04C5-2C71-49A3-A3D9-46653AACAE50}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1520" windowWidth="17840" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1270" yWindow="520" windowWidth="17840" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t xml:space="preserve"> Mouser</t>
   </si>
@@ -83,15 +83,6 @@
     <t xml:space="preserve">TB007-508-04BE </t>
   </si>
   <si>
-    <t>8-pos terminal block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490-TB007-508-08BE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TB007-508-08BE </t>
-  </si>
-  <si>
     <t>SPDT relay 12V</t>
   </si>
   <si>
@@ -216,6 +207,24 @@
   </si>
   <si>
     <t>6-32 standoffs</t>
+  </si>
+  <si>
+    <t>12-pos terminal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-TB007-508-12BE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB007-508-12BE </t>
+  </si>
+  <si>
+    <t>6-pos terminal block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-TB007-508-06BE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB007-508-06BE </t>
   </si>
 </sst>
 </file>
@@ -560,13 +569,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="49.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -612,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -627,7 +638,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -647,7 +658,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -655,30 +666,30 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>1.32</v>
@@ -689,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>0.15</v>
@@ -703,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -715,23 +726,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
         <v>34.950000000000003</v>
@@ -754,24 +765,24 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>2</v>
       </c>
@@ -779,21 +790,19 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.72</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -802,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -814,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>2886</v>
@@ -831,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2">
         <v>0.57999999999999996</v>
@@ -842,19 +851,19 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" s="2">
         <v>0.4</v>
@@ -862,19 +871,19 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="2">
         <v>0.41</v>
@@ -882,19 +891,19 @@
     </row>
     <row r="22" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
       </c>
       <c r="G22" s="2">
         <v>0.44</v>
@@ -902,19 +911,19 @@
     </row>
     <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" s="2">
         <v>0.6</v>
@@ -925,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2">
         <v>6.25</v>
@@ -936,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2">
         <v>15</v>
@@ -947,10 +956,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2">
         <v>0.37</v>
@@ -961,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -970,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -979,10 +988,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2">
         <v>3</v>
@@ -1069,5 +1078,6 @@
     <hyperlink ref="E23" r:id="rId1" display="https://www.mouser.com/ProductDetail/Kingbright/APA2107LSECK-J4-PRV?qs=6oMev5NRZMFINHnQutSYHA%3D%3D" xr:uid="{00B83E8D-8329-4D91-A3CF-DCE5C333F13B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>